--- a/Att.xlsx
+++ b/Att.xlsx
@@ -1,15 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="AttProto" sheetId="1" r:id="rId1"/>
+    <sheet name="AttProto" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -23,20 +20,11 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
           </rPr>
-          <t>Admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t>Admin:
 取卡牌升级50级数值</t>
         </r>
       </text>
@@ -46,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -306,6 +294,9 @@
     <t>字段控制</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>导出字段类型</t>
   </si>
   <si>
@@ -318,6 +309,12 @@
     <t>demo版本防战</t>
   </si>
   <si>
+    <t>0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,0,0,0,0,0,1</t>
+  </si>
+  <si>
     <t>demo版本狂战</t>
   </si>
   <si>
@@ -328,6 +325,160 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>3</t>
+    </r>
   </si>
   <si>
     <t>demo版本治疗</t>
@@ -337,190 +488,38 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="SimSun"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -530,209 +529,23 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="12"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -782,6 +595,42 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="10"/>
       </left>
@@ -810,26 +659,6 @@
       <right style="thin">
         <color indexed="10"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
       <top style="thin">
         <color indexed="10"/>
       </top>
@@ -838,437 +667,123 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="26">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00AAAAAA"/>
-      <rgbColor rgb="0092D050"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff92d050"/>
+      <rgbColor rgb="ffebf1dd"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office 主题​​">
       <a:dk1>
@@ -1394,7 +909,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1403,7 +918,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1412,7 +927,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1486,12 +1001,13 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
+        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
@@ -1511,7 +1027,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1540,7 +1057,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1565,7 +1083,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1590,7 +1109,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1615,7 +1135,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1640,7 +1161,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1665,7 +1187,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1690,7 +1213,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1715,7 +1239,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1740,7 +1265,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1753,15 +1279,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:srgbClr val="FFFFFF"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:srgbClr val="FFFFFF"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:srgbClr val="FFFFFF"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1776,12 +1296,13 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
+        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -1801,7 +1322,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1826,7 +1348,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1851,7 +1374,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1876,7 +1400,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1901,7 +1426,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1926,7 +1452,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1951,7 +1478,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1976,7 +1504,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2001,7 +1530,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2026,7 +1556,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2039,15 +1570,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:srgbClr val="FFFFFF"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:srgbClr val="FFFFFF"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:srgbClr val="FFFFFF"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2058,6 +1583,8 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
@@ -2077,7 +1604,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2106,7 +1634,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2131,7 +1660,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2156,7 +1686,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2181,7 +1712,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2206,7 +1738,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2231,7 +1764,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2256,7 +1790,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2281,7 +1816,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2306,7 +1842,8 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2319,15 +1856,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:srgbClr val="FFFFFF"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:srgbClr val="FFFFFF"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:srgbClr val="FFFFFF"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
@@ -2336,39 +1867,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AO11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.35" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.35" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3516" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.35" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85156" style="1" customWidth="1"/>
     <col min="6" max="6" width="5.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.35" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.35" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.35156" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.35156" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.8516" style="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" customWidth="1"/>
     <col min="11" max="11" width="7.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.35" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.35" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.35156" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.35156" style="1" customWidth="1"/>
     <col min="14" max="14" width="10" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.85" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.85156" style="1" customWidth="1"/>
     <col min="16" max="19" width="8" style="1" customWidth="1"/>
     <col min="20" max="39" width="13" style="1" customWidth="1"/>
-    <col min="40" max="41" width="17.35" style="1" customWidth="1"/>
+    <col min="40" max="41" width="17.3516" style="1" customWidth="1"/>
     <col min="42" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1" spans="1:41">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="14" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
@@ -2383,7 +1911,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-      <c r="N1" s="2" t="s">
+      <c r="N1" t="s" s="2">
         <v>1</v>
       </c>
       <c r="O1" s="3"/>
@@ -2414,25 +1942,25 @@
       <c r="AN1" s="2"/>
       <c r="AO1" s="2"/>
     </row>
-    <row r="2" ht="113" customHeight="1" spans="1:41">
+    <row r="2" ht="113" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="D2" t="s" s="5">
         <v>2</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="5" t="s">
+      <c r="I2" t="s" s="5">
         <v>3</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="5" t="s">
+      <c r="N2" t="s" s="5">
         <v>4</v>
       </c>
       <c r="O2" s="4"/>
@@ -2460,266 +1988,268 @@
       <c r="AK2" s="5"/>
       <c r="AL2" s="5"/>
       <c r="AM2" s="5"/>
-      <c r="AN2" s="5" t="s">
+      <c r="AN2" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="AO2" s="5" t="s">
+      <c r="AO2" t="s" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="16.15" customHeight="1" spans="1:41">
+    <row r="3" ht="16.15" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="O3" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="P3" t="s" s="9">
         <v>20</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" t="s" s="10">
         <v>21</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="R3" t="s" s="8">
         <v>22</v>
       </c>
-      <c r="S3" s="18" t="s">
+      <c r="S3" t="s" s="9">
         <v>23</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="T3" t="s" s="9">
         <v>24</v>
       </c>
-      <c r="U3" s="18" t="s">
+      <c r="U3" t="s" s="9">
         <v>25</v>
       </c>
-      <c r="V3" s="18" t="s">
+      <c r="V3" t="s" s="9">
         <v>26</v>
       </c>
-      <c r="W3" s="18" t="s">
+      <c r="W3" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="X3" s="18" t="s">
+      <c r="X3" t="s" s="9">
         <v>28</v>
       </c>
-      <c r="Y3" s="18" t="s">
+      <c r="Y3" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="Z3" s="18" t="s">
+      <c r="Z3" t="s" s="9">
         <v>30</v>
       </c>
-      <c r="AA3" s="18" t="s">
+      <c r="AA3" t="s" s="9">
         <v>31</v>
       </c>
-      <c r="AB3" s="18" t="s">
+      <c r="AB3" t="s" s="9">
         <v>32</v>
       </c>
-      <c r="AC3" s="18" t="s">
+      <c r="AC3" t="s" s="9">
         <v>33</v>
       </c>
-      <c r="AD3" s="18" t="s">
+      <c r="AD3" t="s" s="9">
         <v>34</v>
       </c>
-      <c r="AE3" s="18" t="s">
+      <c r="AE3" t="s" s="9">
         <v>35</v>
       </c>
-      <c r="AF3" s="18" t="s">
+      <c r="AF3" t="s" s="9">
         <v>36</v>
       </c>
-      <c r="AG3" s="18" t="s">
+      <c r="AG3" t="s" s="9">
         <v>37</v>
       </c>
-      <c r="AH3" s="18" t="s">
+      <c r="AH3" t="s" s="9">
         <v>38</v>
       </c>
-      <c r="AI3" s="18" t="s">
+      <c r="AI3" t="s" s="9">
         <v>39</v>
       </c>
-      <c r="AJ3" s="18" t="s">
+      <c r="AJ3" t="s" s="9">
         <v>40</v>
       </c>
-      <c r="AK3" s="18" t="s">
+      <c r="AK3" t="s" s="9">
         <v>41</v>
       </c>
-      <c r="AL3" s="18" t="s">
+      <c r="AL3" t="s" s="9">
         <v>42</v>
       </c>
-      <c r="AM3" s="18" t="s">
+      <c r="AM3" t="s" s="9">
         <v>43</v>
       </c>
-      <c r="AN3" s="18" t="s">
+      <c r="AN3" t="s" s="9">
         <v>44</v>
       </c>
-      <c r="AO3" s="18" t="s">
+      <c r="AO3" t="s" s="9">
         <v>45</v>
       </c>
     </row>
-    <row r="4" ht="16.15" customHeight="1" spans="1:41">
+    <row r="4" ht="16.15" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="6" t="s">
+      <c r="B4" t="s" s="6">
         <v>46</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" t="s" s="7">
         <v>47</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" t="s" s="7">
         <v>48</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" t="s" s="7">
         <v>49</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" t="s" s="7">
         <v>50</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" t="s" s="7">
         <v>51</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" t="s" s="7">
         <v>52</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" t="s" s="7">
         <v>53</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" t="s" s="7">
         <v>54</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" t="s" s="7">
         <v>55</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" t="s" s="7">
         <v>56</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" t="s" s="7">
         <v>57</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="O4" t="s" s="8">
         <v>58</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="P4" t="s" s="9">
         <v>59</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="Q4" t="s" s="10">
         <v>60</v>
       </c>
-      <c r="R4" s="17" t="s">
+      <c r="R4" t="s" s="8">
         <v>61</v>
       </c>
-      <c r="S4" s="18" t="s">
+      <c r="S4" t="s" s="9">
         <v>62</v>
       </c>
-      <c r="T4" s="18" t="s">
+      <c r="T4" t="s" s="9">
         <v>63</v>
       </c>
-      <c r="U4" s="18" t="s">
+      <c r="U4" t="s" s="9">
         <v>64</v>
       </c>
-      <c r="V4" s="18" t="s">
+      <c r="V4" t="s" s="9">
         <v>65</v>
       </c>
-      <c r="W4" s="18" t="s">
+      <c r="W4" t="s" s="9">
         <v>66</v>
       </c>
-      <c r="X4" s="18" t="s">
+      <c r="X4" t="s" s="9">
         <v>67</v>
       </c>
-      <c r="Y4" s="18" t="s">
+      <c r="Y4" t="s" s="9">
         <v>68</v>
       </c>
-      <c r="Z4" s="18" t="s">
+      <c r="Z4" t="s" s="9">
         <v>69</v>
       </c>
-      <c r="AA4" s="18" t="s">
+      <c r="AA4" t="s" s="9">
         <v>70</v>
       </c>
-      <c r="AB4" s="18" t="s">
+      <c r="AB4" t="s" s="9">
         <v>71</v>
       </c>
-      <c r="AC4" s="18" t="s">
+      <c r="AC4" t="s" s="9">
         <v>72</v>
       </c>
-      <c r="AD4" s="18" t="s">
+      <c r="AD4" t="s" s="9">
         <v>73</v>
       </c>
-      <c r="AE4" s="18" t="s">
+      <c r="AE4" t="s" s="9">
         <v>74</v>
       </c>
-      <c r="AF4" s="18" t="s">
+      <c r="AF4" t="s" s="9">
         <v>75</v>
       </c>
-      <c r="AG4" s="18" t="s">
+      <c r="AG4" t="s" s="9">
         <v>76</v>
       </c>
-      <c r="AH4" s="18" t="s">
+      <c r="AH4" t="s" s="9">
         <v>77</v>
       </c>
-      <c r="AI4" s="18" t="s">
+      <c r="AI4" t="s" s="9">
         <v>78</v>
       </c>
-      <c r="AJ4" s="18" t="s">
+      <c r="AJ4" t="s" s="9">
         <v>79</v>
       </c>
-      <c r="AK4" s="18" t="s">
+      <c r="AK4" t="s" s="9">
         <v>80</v>
       </c>
-      <c r="AL4" s="18" t="s">
+      <c r="AL4" t="s" s="9">
         <v>81</v>
       </c>
-      <c r="AM4" s="18" t="s">
+      <c r="AM4" t="s" s="9">
         <v>82</v>
       </c>
-      <c r="AN4" s="18" t="s">
+      <c r="AN4" t="s" s="9">
         <v>83</v>
       </c>
-      <c r="AO4" s="18" t="s">
+      <c r="AO4" t="s" s="9">
         <v>84</v>
       </c>
     </row>
-    <row r="5" ht="16.15" customHeight="1" spans="1:41">
+    <row r="5" ht="16.15" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="6" t="s">
+      <c r="B5" t="s" s="6">
         <v>85</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="D5" t="s" s="7">
+        <v>86</v>
+      </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -2730,615 +2260,615 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="18"/>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="18"/>
-      <c r="AG5" s="18"/>
-      <c r="AH5" s="18"/>
-      <c r="AI5" s="18"/>
-      <c r="AJ5" s="18"/>
-      <c r="AK5" s="18"/>
-      <c r="AL5" s="18"/>
-      <c r="AM5" s="18"/>
-      <c r="AN5" s="18"/>
-      <c r="AO5" s="18"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="9"/>
     </row>
-    <row r="6" ht="16.15" customHeight="1" spans="1:41">
+    <row r="6" ht="16.15" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6" t="s" s="6">
         <v>87</v>
       </c>
+      <c r="C6" t="s" s="7">
+        <v>88</v>
+      </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="O6" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="P6" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q6" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="R6" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="S6" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="T6" s="21"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="18"/>
-      <c r="AG6" s="18"/>
-      <c r="AH6" s="18"/>
-      <c r="AI6" s="18"/>
-      <c r="AJ6" s="18"/>
-      <c r="AK6" s="18"/>
-      <c r="AL6" s="18"/>
-      <c r="AM6" s="18"/>
-      <c r="AN6" s="18" t="s">
+      <c r="E6" t="s" s="7">
         <v>88</v>
       </c>
-      <c r="AO6" s="18" t="s">
+      <c r="F6" t="s" s="7">
         <v>88</v>
       </c>
+      <c r="G6" t="s" s="7">
+        <v>88</v>
+      </c>
+      <c r="H6" t="s" s="7">
+        <v>88</v>
+      </c>
+      <c r="I6" t="s" s="7">
+        <v>88</v>
+      </c>
+      <c r="J6" t="s" s="7">
+        <v>88</v>
+      </c>
+      <c r="K6" t="s" s="7">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s" s="7">
+        <v>88</v>
+      </c>
+      <c r="M6" t="s" s="7">
+        <v>88</v>
+      </c>
+      <c r="N6" t="s" s="7">
+        <v>88</v>
+      </c>
+      <c r="O6" t="s" s="8">
+        <v>88</v>
+      </c>
+      <c r="P6" t="s" s="9">
+        <v>88</v>
+      </c>
+      <c r="Q6" t="s" s="10">
+        <v>88</v>
+      </c>
+      <c r="R6" t="s" s="8">
+        <v>88</v>
+      </c>
+      <c r="S6" t="s" s="9">
+        <v>88</v>
+      </c>
+      <c r="T6" s="11"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
+      <c r="AN6" t="s" s="9">
+        <v>89</v>
+      </c>
+      <c r="AO6" t="s" s="9">
+        <v>89</v>
+      </c>
     </row>
-    <row r="7" ht="25" customHeight="1" spans="1:41">
+    <row r="7" ht="25" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="8">
+      <c r="C7" s="12">
         <v>1</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="10">
+      <c r="D7" t="s" s="13">
+        <v>90</v>
+      </c>
+      <c r="E7" s="14">
         <v>440</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="15">
         <v>636</v>
       </c>
-      <c r="G7" s="11">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11">
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15">
         <v>500</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="15">
         <v>10000</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="15">
         <v>3000</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="15">
         <v>500</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="15">
         <v>120</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="15">
         <v>100</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="15">
         <v>100</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="15">
         <v>1200</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="15">
         <v>1200</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="15">
         <v>9999</v>
       </c>
-      <c r="R7" s="11">
-        <v>0</v>
-      </c>
-      <c r="S7" s="22"/>
-      <c r="T7" s="14">
-        <v>0</v>
-      </c>
-      <c r="U7" s="11">
-        <v>0</v>
-      </c>
-      <c r="V7" s="11">
-        <v>0</v>
-      </c>
-      <c r="W7" s="11">
-        <v>0</v>
-      </c>
-      <c r="X7" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="11">
+      <c r="R7" s="15">
+        <v>0</v>
+      </c>
+      <c r="S7" s="16"/>
+      <c r="T7" s="17">
+        <v>0</v>
+      </c>
+      <c r="U7" s="15">
+        <v>0</v>
+      </c>
+      <c r="V7" s="15">
+        <v>0</v>
+      </c>
+      <c r="W7" s="15">
+        <v>0</v>
+      </c>
+      <c r="X7" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="15">
         <v>1</v>
       </c>
-      <c r="AN7" s="9" t="str">
+      <c r="AN7" t="s" s="13">
         <f>T1:T11&amp;","&amp;U1:U11&amp;","&amp;V1:V11&amp;","&amp;W1:W11&amp;","&amp;X1:X11&amp;","&amp;Y1:Y11&amp;","&amp;Z1:Z11&amp;","&amp;AA1:AA11&amp;","&amp;AB1:AB11&amp;","&amp;AC1:AC11</f>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-      <c r="AO7" s="9" t="str">
+        <v>91</v>
+      </c>
+      <c r="AO7" t="s" s="13">
         <f>AD1:AD11&amp;","&amp;AE1:AE11&amp;","&amp;AF1:AF11&amp;","&amp;AG1:AG11&amp;","&amp;AH1:AH11&amp;","&amp;AI1:AI11&amp;","&amp;AJ1:AJ11&amp;","&amp;AK1:AK11&amp;","&amp;AL1:AL11&amp;","&amp;AM1:AM11</f>
-        <v>0,0,0,0,0,0,0,0,0,1</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="8" ht="25" customHeight="1" spans="1:41">
+    <row r="8" ht="25" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="12">
+      <c r="C8" s="18">
         <v>2</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="13">
+      <c r="D8" t="s" s="19">
+        <v>93</v>
+      </c>
+      <c r="E8" s="20">
         <v>550</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="17">
         <v>530</v>
       </c>
-      <c r="G8" s="14">
-        <v>0</v>
-      </c>
-      <c r="H8" s="11">
+      <c r="G8" s="17">
+        <v>0</v>
+      </c>
+      <c r="H8" s="17">
         <v>500</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="17">
         <v>10000</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="17">
         <v>1500</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="17">
         <v>1200</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="17">
         <v>50</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="17">
         <v>60</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="17">
         <v>100</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O8" s="17">
         <v>1300</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P8" s="17">
         <v>1300</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="Q8" s="17">
         <v>9999</v>
       </c>
-      <c r="R8" s="14">
-        <v>0</v>
-      </c>
-      <c r="S8" s="23"/>
-      <c r="T8" s="14">
-        <v>0</v>
-      </c>
-      <c r="U8" s="14">
-        <v>0</v>
-      </c>
-      <c r="V8" s="14">
-        <v>0</v>
-      </c>
-      <c r="W8" s="14">
-        <v>0</v>
-      </c>
-      <c r="X8" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="14">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="25" t="str">
+      <c r="R8" s="17">
+        <v>0</v>
+      </c>
+      <c r="S8" s="21"/>
+      <c r="T8" s="17">
+        <v>0</v>
+      </c>
+      <c r="U8" s="17">
+        <v>0</v>
+      </c>
+      <c r="V8" s="17">
+        <v>0</v>
+      </c>
+      <c r="W8" s="17">
+        <v>0</v>
+      </c>
+      <c r="X8" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="s" s="19">
         <f>T1:T11&amp;","&amp;U1:U11&amp;","&amp;V1:V11&amp;","&amp;W1:W11&amp;","&amp;X1:X11&amp;","&amp;Y1:Y11&amp;","&amp;Z1:Z11&amp;","&amp;AA1:AA11&amp;","&amp;AB1:AB11&amp;","&amp;AC1:AC11</f>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-      <c r="AO8" s="25" t="str">
+        <v>91</v>
+      </c>
+      <c r="AO8" t="s" s="19">
         <f>AD1:AD11&amp;","&amp;AE1:AE11&amp;","&amp;AF1:AF11&amp;","&amp;AG1:AG11&amp;","&amp;AH1:AH11&amp;","&amp;AI1:AI11&amp;","&amp;AJ1:AJ11&amp;","&amp;AK1:AK11&amp;","&amp;AL1:AL11&amp;","&amp;AM1:AM11</f>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="9" ht="25" customHeight="1" spans="1:41">
+    <row r="9" ht="25" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="12">
+      <c r="C9" s="18">
         <v>3</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" t="s" s="19">
+        <v>94</v>
+      </c>
+      <c r="E9" s="15">
+        <v>660</v>
+      </c>
+      <c r="F9" s="17">
+        <v>424</v>
+      </c>
+      <c r="G9" s="17">
+        <v>1000</v>
+      </c>
+      <c r="H9" s="17">
+        <v>500</v>
+      </c>
+      <c r="I9" s="17">
+        <v>10000</v>
+      </c>
+      <c r="J9" s="17">
+        <v>1700</v>
+      </c>
+      <c r="K9" s="17">
+        <v>1000</v>
+      </c>
+      <c r="L9" s="17">
+        <v>70</v>
+      </c>
+      <c r="M9" s="17">
+        <v>60</v>
+      </c>
+      <c r="N9" s="17">
+        <v>100</v>
+      </c>
+      <c r="O9" s="17">
+        <v>1400</v>
+      </c>
+      <c r="P9" s="17">
+        <v>1400</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>9999</v>
+      </c>
+      <c r="R9" s="17">
+        <v>0</v>
+      </c>
+      <c r="S9" s="21"/>
+      <c r="T9" s="17">
+        <v>0</v>
+      </c>
+      <c r="U9" s="17">
+        <v>0</v>
+      </c>
+      <c r="V9" s="17">
+        <v>0</v>
+      </c>
+      <c r="W9" s="17">
+        <v>0</v>
+      </c>
+      <c r="X9" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="s" s="22">
+        <v>95</v>
+      </c>
+      <c r="AE9" t="s" s="22">
+        <v>95</v>
+      </c>
+      <c r="AF9" t="s" s="22">
+        <v>95</v>
+      </c>
+      <c r="AG9" t="s" s="22">
+        <v>95</v>
+      </c>
+      <c r="AH9" t="s" s="22">
+        <v>95</v>
+      </c>
+      <c r="AI9" t="s" s="22">
+        <v>95</v>
+      </c>
+      <c r="AJ9" t="s" s="22">
+        <v>95</v>
+      </c>
+      <c r="AK9" t="s" s="22">
+        <v>95</v>
+      </c>
+      <c r="AL9" t="s" s="22">
+        <v>95</v>
+      </c>
+      <c r="AM9" t="s" s="22">
+        <v>96</v>
+      </c>
+      <c r="AN9" t="s" s="19">
+        <f>T1:T11&amp;","&amp;U1:U11&amp;","&amp;V1:V11&amp;","&amp;W1:W11&amp;","&amp;X1:X11&amp;","&amp;Y1:Y11&amp;","&amp;Z1:Z11&amp;","&amp;AA1:AA11&amp;","&amp;AB1:AB11&amp;","&amp;AC1:AC11</f>
         <v>91</v>
       </c>
-      <c r="E9" s="11">
-        <v>660</v>
-      </c>
-      <c r="F9" s="14">
-        <v>424</v>
-      </c>
-      <c r="G9" s="14">
-        <v>1000</v>
-      </c>
-      <c r="H9" s="11">
-        <v>500</v>
-      </c>
-      <c r="I9" s="14">
-        <v>10000</v>
-      </c>
-      <c r="J9" s="14">
-        <v>1700</v>
-      </c>
-      <c r="K9" s="14">
-        <v>1000</v>
-      </c>
-      <c r="L9" s="14">
-        <v>70</v>
-      </c>
-      <c r="M9" s="14">
-        <v>60</v>
-      </c>
-      <c r="N9" s="14">
-        <v>100</v>
-      </c>
-      <c r="O9" s="14">
-        <v>1400</v>
-      </c>
-      <c r="P9" s="14">
-        <v>1400</v>
-      </c>
-      <c r="Q9" s="14">
-        <v>9999</v>
-      </c>
-      <c r="R9" s="14">
-        <v>0</v>
-      </c>
-      <c r="S9" s="23"/>
-      <c r="T9" s="14">
-        <v>0</v>
-      </c>
-      <c r="U9" s="14">
-        <v>0</v>
-      </c>
-      <c r="V9" s="14">
-        <v>0</v>
-      </c>
-      <c r="W9" s="14">
-        <v>0</v>
-      </c>
-      <c r="X9" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE9" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF9" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG9" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH9" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI9" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ9" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK9" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL9" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM9" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN9" s="25" t="str">
-        <f>T1:T11&amp;","&amp;U1:U11&amp;","&amp;V1:V11&amp;","&amp;W1:W11&amp;","&amp;X1:X11&amp;","&amp;Y1:Y11&amp;","&amp;Z1:Z11&amp;","&amp;AA1:AA11&amp;","&amp;AB1:AB11&amp;","&amp;AC1:AC11</f>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-      <c r="AO9" s="25" t="str">
+      <c r="AO9" t="s" s="19">
         <f>AD1:AD11&amp;","&amp;AE1:AE11&amp;","&amp;AF1:AF11&amp;","&amp;AG1:AG11&amp;","&amp;AH1:AH11&amp;","&amp;AI1:AI11&amp;","&amp;AJ1:AJ11&amp;","&amp;AK1:AK11&amp;","&amp;AL1:AL11&amp;","&amp;AM1:AM11</f>
-        <v>0,0,0,0,0,0,0,0,0,3</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="10" ht="25" customHeight="1" spans="1:41">
+    <row r="10" ht="25" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="12">
+      <c r="C10" s="18">
         <v>4</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="11">
+      <c r="D10" t="s" s="19">
+        <v>98</v>
+      </c>
+      <c r="E10" s="17">
         <v>550</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="17">
         <v>424</v>
       </c>
-      <c r="G10" s="14">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
+      <c r="G10" s="17">
+        <v>0</v>
+      </c>
+      <c r="H10" s="17">
         <v>500</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="17">
         <v>10000</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="17">
         <v>3000</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="17">
         <v>500</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="17">
         <v>120</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="17">
         <v>100</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="17">
         <v>100</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O10" s="17">
         <v>1500</v>
       </c>
-      <c r="P10" s="14">
+      <c r="P10" s="17">
         <v>1500</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="Q10" s="17">
         <v>9999</v>
       </c>
-      <c r="R10" s="14">
+      <c r="R10" s="17">
         <v>1000</v>
       </c>
-      <c r="S10" s="23"/>
-      <c r="T10" s="14">
-        <v>0</v>
-      </c>
-      <c r="U10" s="14">
-        <v>0</v>
-      </c>
-      <c r="V10" s="14">
-        <v>0</v>
-      </c>
-      <c r="W10" s="14">
-        <v>0</v>
-      </c>
-      <c r="X10" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="25" t="str">
+      <c r="S10" s="21"/>
+      <c r="T10" s="17">
+        <v>0</v>
+      </c>
+      <c r="U10" s="17">
+        <v>0</v>
+      </c>
+      <c r="V10" s="17">
+        <v>0</v>
+      </c>
+      <c r="W10" s="17">
+        <v>0</v>
+      </c>
+      <c r="X10" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="s" s="19">
         <f>T1:T11&amp;","&amp;U1:U11&amp;","&amp;V1:V11&amp;","&amp;W1:W11&amp;","&amp;X1:X11&amp;","&amp;Y1:Y11&amp;","&amp;Z1:Z11&amp;","&amp;AA1:AA11&amp;","&amp;AB1:AB11&amp;","&amp;AC1:AC11</f>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-      <c r="AO10" s="25" t="str">
+        <v>91</v>
+      </c>
+      <c r="AO10" t="s" s="19">
         <f>AD1:AD11&amp;","&amp;AE1:AE11&amp;","&amp;AF1:AF11&amp;","&amp;AG1:AG11&amp;","&amp;AH1:AH11&amp;","&amp;AI1:AI11&amp;","&amp;AJ1:AJ11&amp;","&amp;AK1:AK11&amp;","&amp;AL1:AL11&amp;","&amp;AM1:AM11</f>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="11" ht="16.15" customHeight="1" spans="1:41">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="19"/>
+    <row r="11" ht="16.15" customHeight="1">
+      <c r="A11" s="23"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="25"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
@@ -3368,10 +2898,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Att.xlsx
+++ b/Att.xlsx
@@ -63,6 +63,9 @@
     <t>10000=100%</t>
   </si>
   <si>
+    <t>每秒</t>
+  </si>
+  <si>
     <t>公式生成，不用填写</t>
   </si>
   <si>
@@ -325,9 +328,6 @@
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>demo版本治疗</t>
@@ -338,10 +338,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -365,19 +365,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -389,38 +381,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,7 +403,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,7 +411,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,17 +432,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,7 +473,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,14 +481,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,7 +547,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,7 +589,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,61 +703,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,91 +715,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,45 +848,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -914,8 +875,49 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -937,11 +939,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -951,10 +951,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -963,137 +963,137 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1127,9 +1127,6 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2341,7 +2338,7 @@
   <dimension ref="A1:AO11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -2438,7 +2435,9 @@
       <c r="O2" s="4"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
+      <c r="R2" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -2461,262 +2460,262 @@
       <c r="AL2" s="5"/>
       <c r="AM2" s="5"/>
       <c r="AN2" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO2" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" ht="16.15" customHeight="1" spans="1:41">
       <c r="A3" s="3"/>
       <c r="B3" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P3" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q3" s="20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S3" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T3" s="18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U3" s="18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="V3" s="18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="W3" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X3" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y3" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z3" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AA3" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB3" s="18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AC3" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AD3" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE3" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AF3" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AG3" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AH3" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI3" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AJ3" s="18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AK3" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AL3" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM3" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AN3" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AO3" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" ht="16.15" customHeight="1" spans="1:41">
       <c r="A4" s="3"/>
       <c r="B4" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P4" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q4" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S4" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T4" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U4" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V4" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W4" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="X4" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y4" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z4" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA4" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB4" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC4" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD4" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE4" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF4" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG4" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH4" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI4" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ4" s="18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK4" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL4" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM4" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AN4" s="18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AO4" s="18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" ht="16.15" customHeight="1" spans="1:41">
       <c r="A5" s="3"/>
       <c r="B5" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -2761,56 +2760,56 @@
     <row r="6" ht="16.15" customHeight="1" spans="1:41">
       <c r="A6" s="3"/>
       <c r="B6" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P6" s="18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q6" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S6" s="18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T6" s="21"/>
       <c r="U6" s="18"/>
@@ -2833,10 +2832,10 @@
       <c r="AL6" s="18"/>
       <c r="AM6" s="18"/>
       <c r="AN6" s="18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AO6" s="18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:41">
@@ -2846,7 +2845,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E7" s="10">
         <v>440</v>
@@ -2861,36 +2860,38 @@
         <v>500</v>
       </c>
       <c r="I7" s="11">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="J7" s="11">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0</v>
+      </c>
+      <c r="L7" s="11">
+        <v>150</v>
+      </c>
+      <c r="M7" s="11">
+        <v>150</v>
+      </c>
+      <c r="N7" s="11">
+        <v>5000</v>
+      </c>
+      <c r="O7" s="11">
         <v>3000</v>
       </c>
-      <c r="K7" s="11">
-        <v>500</v>
-      </c>
-      <c r="L7" s="11">
+      <c r="P7" s="11">
+        <v>6600</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>2500</v>
+      </c>
+      <c r="R7" s="11">
         <v>120</v>
       </c>
-      <c r="M7" s="11">
-        <v>100</v>
-      </c>
-      <c r="N7" s="11">
-        <v>100</v>
-      </c>
-      <c r="O7" s="11">
-        <v>1200</v>
-      </c>
-      <c r="P7" s="11">
-        <v>1200</v>
-      </c>
-      <c r="Q7" s="11">
-        <v>9999</v>
-      </c>
-      <c r="R7" s="11">
-        <v>0</v>
-      </c>
-      <c r="S7" s="22"/>
+      <c r="S7" s="22">
+        <v>1000</v>
+      </c>
       <c r="T7" s="14">
         <v>0</v>
       </c>
@@ -2949,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="AM7" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN7" s="9" t="str">
         <f>T1:T11&amp;","&amp;U1:U11&amp;","&amp;V1:V11&amp;","&amp;W1:W11&amp;","&amp;X1:X11&amp;","&amp;Y1:Y11&amp;","&amp;Z1:Z11&amp;","&amp;AA1:AA11&amp;","&amp;AB1:AB11&amp;","&amp;AC1:AC11</f>
@@ -2957,7 +2958,7 @@
       </c>
       <c r="AO7" s="9" t="str">
         <f>AD1:AD11&amp;","&amp;AE1:AE11&amp;","&amp;AF1:AF11&amp;","&amp;AG1:AG11&amp;","&amp;AH1:AH11&amp;","&amp;AI1:AI11&amp;","&amp;AJ1:AJ11&amp;","&amp;AK1:AK11&amp;","&amp;AL1:AL11&amp;","&amp;AM1:AM11</f>
-        <v>0,0,0,0,0,0,0,0,0,1</v>
+        <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:41">
@@ -2967,7 +2968,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E8" s="13">
         <v>550</v>
@@ -2981,39 +2982,41 @@
       <c r="H8" s="11">
         <v>500</v>
       </c>
-      <c r="I8" s="14">
-        <v>10000</v>
+      <c r="I8" s="11">
+        <v>5000</v>
       </c>
       <c r="J8" s="14">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="K8" s="14">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="L8" s="14">
-        <v>50</v>
-      </c>
-      <c r="M8" s="14">
-        <v>60</v>
-      </c>
-      <c r="N8" s="14">
         <v>100</v>
       </c>
+      <c r="M8" s="11">
+        <v>100</v>
+      </c>
+      <c r="N8" s="11">
+        <v>5000</v>
+      </c>
       <c r="O8" s="14">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="P8" s="14">
-        <v>1300</v>
-      </c>
-      <c r="Q8" s="14">
-        <v>9999</v>
-      </c>
-      <c r="R8" s="14">
-        <v>0</v>
-      </c>
-      <c r="S8" s="23"/>
+        <v>5500</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>2500</v>
+      </c>
+      <c r="R8" s="11">
+        <v>120</v>
+      </c>
+      <c r="S8" s="22">
+        <v>1000</v>
+      </c>
       <c r="T8" s="14">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="U8" s="14">
         <v>0</v>
@@ -3072,11 +3075,11 @@
       <c r="AM8" s="14">
         <v>0</v>
       </c>
-      <c r="AN8" s="25" t="str">
+      <c r="AN8" s="24" t="str">
         <f>T1:T11&amp;","&amp;U1:U11&amp;","&amp;V1:V11&amp;","&amp;W1:W11&amp;","&amp;X1:X11&amp;","&amp;Y1:Y11&amp;","&amp;Z1:Z11&amp;","&amp;AA1:AA11&amp;","&amp;AB1:AB11&amp;","&amp;AC1:AC11</f>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-      <c r="AO8" s="25" t="str">
+        <v>2000,0,0,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AO8" s="24" t="str">
         <f>AD1:AD11&amp;","&amp;AE1:AE11&amp;","&amp;AF1:AF11&amp;","&amp;AG1:AG11&amp;","&amp;AH1:AH11&amp;","&amp;AI1:AI11&amp;","&amp;AJ1:AJ11&amp;","&amp;AK1:AK11&amp;","&amp;AL1:AL11&amp;","&amp;AM1:AM11</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
@@ -3088,7 +3091,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E9" s="11">
         <v>660</v>
@@ -3102,37 +3105,39 @@
       <c r="H9" s="11">
         <v>500</v>
       </c>
-      <c r="I9" s="14">
-        <v>10000</v>
+      <c r="I9" s="11">
+        <v>6000</v>
       </c>
       <c r="J9" s="14">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="K9" s="14">
+        <v>0</v>
+      </c>
+      <c r="L9" s="14">
+        <v>100</v>
+      </c>
+      <c r="M9" s="11">
+        <v>100</v>
+      </c>
+      <c r="N9" s="11">
+        <v>5000</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0</v>
+      </c>
+      <c r="P9" s="14">
+        <v>4400</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>2500</v>
+      </c>
+      <c r="R9" s="11">
+        <v>120</v>
+      </c>
+      <c r="S9" s="22">
         <v>1000</v>
       </c>
-      <c r="L9" s="14">
-        <v>70</v>
-      </c>
-      <c r="M9" s="14">
-        <v>60</v>
-      </c>
-      <c r="N9" s="14">
-        <v>100</v>
-      </c>
-      <c r="O9" s="14">
-        <v>1400</v>
-      </c>
-      <c r="P9" s="14">
-        <v>1400</v>
-      </c>
-      <c r="Q9" s="14">
-        <v>9999</v>
-      </c>
-      <c r="R9" s="14">
-        <v>0</v>
-      </c>
-      <c r="S9" s="23"/>
       <c r="T9" s="14">
         <v>0</v>
       </c>
@@ -3143,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="14">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="X9" s="14">
         <v>0</v>
@@ -3163,43 +3168,43 @@
       <c r="AC9" s="14">
         <v>0</v>
       </c>
-      <c r="AD9" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE9" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF9" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG9" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH9" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI9" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ9" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK9" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL9" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM9" s="24" t="s">
+      <c r="AD9" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="AN9" s="25" t="str">
+      <c r="AE9" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF9" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG9" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH9" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI9" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ9" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK9" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL9" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="24" t="str">
         <f>T1:T11&amp;","&amp;U1:U11&amp;","&amp;V1:V11&amp;","&amp;W1:W11&amp;","&amp;X1:X11&amp;","&amp;Y1:Y11&amp;","&amp;Z1:Z11&amp;","&amp;AA1:AA11&amp;","&amp;AB1:AB11&amp;","&amp;AC1:AC11</f>
+        <v>0,0,0,2000,0,0,0,0,0,0</v>
+      </c>
+      <c r="AO9" s="24" t="str">
+        <f>AD1:AD11&amp;","&amp;AE1:AE11&amp;","&amp;AF1:AF11&amp;","&amp;AG1:AG11&amp;","&amp;AH1:AH11&amp;","&amp;AI1:AI11&amp;","&amp;AJ1:AJ11&amp;","&amp;AK1:AK11&amp;","&amp;AL1:AL11&amp;","&amp;AM1:AM11</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-      <c r="AO9" s="25" t="str">
-        <f>AD1:AD11&amp;","&amp;AE1:AE11&amp;","&amp;AF1:AF11&amp;","&amp;AG1:AG11&amp;","&amp;AH1:AH11&amp;","&amp;AI1:AI11&amp;","&amp;AJ1:AJ11&amp;","&amp;AK1:AK11&amp;","&amp;AL1:AL11&amp;","&amp;AM1:AM11</f>
-        <v>0,0,0,0,0,0,0,0,0,3</v>
       </c>
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:41">
@@ -3223,46 +3228,48 @@
       <c r="H10" s="11">
         <v>500</v>
       </c>
-      <c r="I10" s="14">
-        <v>10000</v>
+      <c r="I10" s="11">
+        <v>5000</v>
       </c>
       <c r="J10" s="14">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="K10" s="14">
+        <v>0</v>
+      </c>
+      <c r="L10" s="14">
+        <v>100</v>
+      </c>
+      <c r="M10" s="11">
+        <v>100</v>
+      </c>
+      <c r="N10" s="11">
+        <v>5000</v>
+      </c>
+      <c r="O10" s="14">
+        <v>0</v>
+      </c>
+      <c r="P10" s="14">
+        <v>4400</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>2500</v>
+      </c>
+      <c r="R10" s="11">
+        <v>120</v>
+      </c>
+      <c r="S10" s="22">
+        <v>1000</v>
+      </c>
+      <c r="T10" s="14">
+        <v>0</v>
+      </c>
+      <c r="U10" s="14">
+        <v>0</v>
+      </c>
+      <c r="V10" s="14">
         <v>500</v>
       </c>
-      <c r="L10" s="14">
-        <v>120</v>
-      </c>
-      <c r="M10" s="14">
-        <v>100</v>
-      </c>
-      <c r="N10" s="14">
-        <v>100</v>
-      </c>
-      <c r="O10" s="14">
-        <v>1500</v>
-      </c>
-      <c r="P10" s="14">
-        <v>1500</v>
-      </c>
-      <c r="Q10" s="14">
-        <v>9999</v>
-      </c>
-      <c r="R10" s="14">
-        <v>1000</v>
-      </c>
-      <c r="S10" s="23"/>
-      <c r="T10" s="14">
-        <v>0</v>
-      </c>
-      <c r="U10" s="14">
-        <v>0</v>
-      </c>
-      <c r="V10" s="14">
-        <v>0</v>
-      </c>
       <c r="W10" s="14">
         <v>0</v>
       </c>
@@ -3314,11 +3321,11 @@
       <c r="AM10" s="14">
         <v>0</v>
       </c>
-      <c r="AN10" s="25" t="str">
+      <c r="AN10" s="24" t="str">
         <f>T1:T11&amp;","&amp;U1:U11&amp;","&amp;V1:V11&amp;","&amp;W1:W11&amp;","&amp;X1:X11&amp;","&amp;Y1:Y11&amp;","&amp;Z1:Z11&amp;","&amp;AA1:AA11&amp;","&amp;AB1:AB11&amp;","&amp;AC1:AC11</f>
-        <v>0,0,0,0,0,0,0,0,0,0</v>
-      </c>
-      <c r="AO10" s="25" t="str">
+        <v>0,0,500,0,0,0,0,0,0,0</v>
+      </c>
+      <c r="AO10" s="24" t="str">
         <f>AD1:AD11&amp;","&amp;AE1:AE11&amp;","&amp;AF1:AF11&amp;","&amp;AG1:AG11&amp;","&amp;AH1:AH11&amp;","&amp;AI1:AI11&amp;","&amp;AJ1:AJ11&amp;","&amp;AK1:AK11&amp;","&amp;AL1:AL11&amp;","&amp;AM1:AM11</f>
         <v>0,0,0,0,0,0,0,0,0,0</v>
       </c>
